--- a/organizational/subsys_requirements.xlsx
+++ b/organizational/subsys_requirements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lmaio\Nextcloud\TU Delft\2019-2020\DSE-Mars-Reveal\project\subsystems_design\AOCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lmaio\Nextcloud\TU Delft\2019-2020\DSE-Mars-Reveal\project\subsystems_design\AOCS\organizational\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>EPS</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>max vibrations</t>
+  </si>
+  <si>
+    <t>flip maneuver time/ angle</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
   <dimension ref="B2:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +561,7 @@
   <dimension ref="B2:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,6 +623,9 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>16</v>
       </c>

--- a/organizational/subsys_requirements.xlsx
+++ b/organizational/subsys_requirements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lmaio\Nextcloud\TU Delft\2019-2020\DSE-Mars-Reveal\project\subsystems_design\AOCS\organizational\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lmaio\Nextcloud\TU Delft\2019-2020\DSE-Mars-Reveal\project\subsystems_design\AOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>EPS</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>max vibrations</t>
-  </si>
-  <si>
-    <t>flip maneuver time/ angle</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
   <dimension ref="B2:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +558,7 @@
   <dimension ref="B2:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,9 +620,6 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
